--- a/StudentDashboard.xlsx
+++ b/StudentDashboard.xlsx
@@ -8,36 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2189B0-5A47-4AF9-B254-A50966C9BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{594342CB-CAA1-4ABB-A8AA-EF7E6254DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="DashBoard" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet4!$A$3:$H$4</definedName>
     <definedName name="Slicer_Attendance">#N/A</definedName>
+    <definedName name="Slicer_Gender">#N/A</definedName>
     <definedName name="Slicer_Grade">#N/A</definedName>
     <definedName name="Slicer_Marks">#N/A</definedName>
+    <definedName name="Slicer_Marks1">#N/A</definedName>
     <definedName name="Slicer_Pass">#N/A</definedName>
     <definedName name="Slicer_Subject">#N/A</definedName>
+    <definedName name="Slicer_Subject1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="57" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
-        <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -70,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="139">
   <si>
     <t>Student_ID</t>
   </si>
@@ -478,13 +486,22 @@
   </si>
   <si>
     <t>STUDENT DASHBOARD</t>
+  </si>
+  <si>
+    <t>Sum of Attendance (%)</t>
+  </si>
+  <si>
+    <t>AVERAGE OF MARKS=100</t>
+  </si>
+  <si>
+    <t>AVERAGE OF ATTENDANCE=64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,7 +519,16 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="22"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -555,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -583,10 +609,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,14 +885,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet6!$A$4:$A$14</c:f>
+              <c:f>Sheet6!$A$4:$A$9</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
                     <c:v>Pass</c:v>
                   </c:pt>
                 </c:lvl>
@@ -873,15 +897,9 @@
                   <c:pt idx="0">
                     <c:v>A</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>D</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
                     <c:v>Science</c:v>
                   </c:pt>
                 </c:lvl>
@@ -889,16 +907,10 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Female</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Student_46</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Student_91</c:v>
+                    <c:v>Student_87</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -906,15 +918,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$4:$B$14</c:f>
+              <c:f>Sheet6!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,14 +960,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet6!$A$4:$A$14</c:f>
+              <c:f>Sheet6!$A$4:$A$9</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
                     <c:v>Pass</c:v>
                   </c:pt>
                 </c:lvl>
@@ -966,15 +972,9 @@
                   <c:pt idx="0">
                     <c:v>A</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>D</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
                     <c:v>Science</c:v>
                   </c:pt>
                 </c:lvl>
@@ -982,16 +982,10 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Female</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Student_46</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Student_91</c:v>
+                    <c:v>Student_87</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -999,15 +993,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$4:$C$14</c:f>
+              <c:f>Sheet6!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,14 +1035,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet6!$A$4:$A$14</c:f>
+              <c:f>Sheet6!$A$4:$A$9</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
                     <c:v>Pass</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1059,15 +1047,9 @@
                   <c:pt idx="0">
                     <c:v>A</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>D</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
                     <c:v>Science</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1075,16 +1057,10 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Female</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Student_46</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Student_91</c:v>
+                    <c:v>Student_87</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1092,14 +1068,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$4:$D$14</c:f>
+              <c:f>Sheet6!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
@@ -1343,10 +1316,409 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[StudentDashboard.xlsx]Sheet6!PivotTable8</c:name>
-    <c:fmtId val="5"/>
+    <c:name>[StudentDashboard.xlsx]Sheet3!PivotTable38</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Math</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F41C-468A-8242-3E434CEEB44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="542889263"/>
+        <c:axId val="542892143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542889263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542892143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542892143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542889263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[StudentDashboard.xlsx]Sheet5!PivotTable39</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1541,18 +1913,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="7030A0"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1573,8 +1940,374 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet5!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C19B-44B1-80DE-FC21F027A164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="542891183"/>
+        <c:axId val="542882063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542891183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542882063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542882063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542891183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[StudentDashboard.xlsx]Sheet5!PivotTable39</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1630,175 +2363,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
+        <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1855,17 +2420,7 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2814244690885111"/>
-          <c:y val="0.12996833915939879"/>
-          <c:w val="0.49358058846247821"/>
-          <c:h val="0.79828925532290529"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1875,11 +2430,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$3</c:f>
+              <c:f>Sheet5!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Student_ID</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1896,14 +2451,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet6!$A$4:$A$14</c:f>
+              <c:f>Sheet5!$A$4:$A$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pass</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pass</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Pass</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1912,31 +2476,16 @@
                     <c:v>A</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>D</c:v>
                   </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Male</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Female</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Student_46</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Student_91</c:v>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1944,208 +2493,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$4:$B$14</c:f>
+              <c:f>Sheet5!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A8BA-42FB-B6F5-CF7958D16A04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet6!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Marks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet6!$A$4:$A$14</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>D</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Male</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Female</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Student_46</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Student_91</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet6!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A8BA-42FB-B6F5-CF7958D16A04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet6!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Attendance (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet6!$A$4:$A$14</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Pass</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>D</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Science</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Male</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Female</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Student_46</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Student_91</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet6!$D$4:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A8BA-42FB-B6F5-CF7958D16A04}"/>
+              <c16:uniqueId val="{00000000-527A-42C9-80F3-9BCE48A05FFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2158,11 +2530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1025887856"/>
-        <c:axId val="1025884496"/>
+        <c:axId val="542891183"/>
+        <c:axId val="542882063"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1025887856"/>
+        <c:axId val="542891183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +2577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025884496"/>
+        <c:crossAx val="542882063"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2213,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1025884496"/>
+        <c:axId val="542882063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025887856"/>
+        <c:crossAx val="542891183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,6 +2780,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2953,6 +3405,1014 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3976,7 +5436,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>43</a:t>
+            <a:t>34</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:gradFill flip="none" rotWithShape="1">
@@ -4314,29 +5774,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BD1B90-79CC-4B97-AF3E-90E86A737B8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435558E0-FCAF-1E5D-759B-4E51376E2CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4350,213 +5808,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E259FD-57B3-4D1C-9297-981EEF52104A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5440680" y="1287780"/>
-          <a:ext cx="1516380" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-IN" sz="1100" baseline="0">
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="48000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="97000"/>
-                    <a:lumOff val="3000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-IN" sz="1100">
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="48000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="97000"/>
-                    <a:lumOff val="3000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2D4920-48EF-483C-97C1-6DCD1328595A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5471160" y="3543300"/>
-          <a:ext cx="1470660" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="Subject 1">
+            <xdr:cNvPr id="3" name="Subject 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96EE692-FC65-4E5D-87FE-A0913486D5B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B9909-AFD0-341E-EC2E-4337392A7733}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4583,7 +5855,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12565380" y="3238500"/>
+              <a:off x="11612880" y="281940"/>
               <a:ext cx="1828800" cy="2466975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4616,103 +5888,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Grade 1">
+            <xdr:cNvPr id="4" name="Marks 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B02574-8A28-4015-B86B-D5803A987CCA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Grade 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12573000" y="967741"/>
-              <a:ext cx="1828800" cy="2164080"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="10" name="Marks 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904A79AD-1C6C-4582-9869-8CE6A50418A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A43F7C-304E-2245-2018-4C0FD9776CBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4739,164 +5933,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14386560" y="998221"/>
-              <a:ext cx="1828800" cy="1691640"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="11" name="Attendance (%) 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551F388A-42FD-4AD4-9F58-671D259CAF01}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Attendance (%) 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14470380" y="2865121"/>
-              <a:ext cx="1828800" cy="1455420"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="12" name="Pass 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25828981-9E92-4ADD-B36D-73BC3A983D5A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Pass 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15720060" y="6621781"/>
-              <a:ext cx="1828800" cy="975360"/>
+              <a:off x="11605260" y="2804160"/>
+              <a:ext cx="1828800" cy="2466975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4928,23 +5966,139 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06684CEC-DCCE-42AB-B070-D784EFBA5616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gender 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB454FCA-B418-40E2-9A71-A252F518C5DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="3741421"/>
+              <a:ext cx="1828800" cy="1463040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
+        <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2170A2-3068-CA55-EE1B-80EA6A144830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA406A4-1775-B802-D5E6-0DAD982F6726}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4952,22 +6106,36 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="777240"/>
-          <a:ext cx="6568440" cy="495300"/>
+          <a:off x="7399020" y="3703320"/>
+          <a:ext cx="518160" cy="815340"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -4986,23 +6154,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
+        <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8457AE-098D-8508-2EE7-C85883F604A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A43031-EC9B-255F-2D71-C9B249873CCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,22 +6178,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3749040"/>
-          <a:ext cx="4892040" cy="1615440"/>
+          <a:off x="1965960" y="45720"/>
+          <a:ext cx="2613660" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -5044,23 +6214,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
+        <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF282AA6-AED6-83F4-8733-F27E70B9CB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83356A4-50F2-409F-A706-DFADBDBF7B8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,66 +6238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4983480" y="4861560"/>
-          <a:ext cx="7520940" cy="1501140"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E94B87-C6A9-33CF-6DCB-A3F834DA2265}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9166860" y="815340"/>
-          <a:ext cx="3375660" cy="533400"/>
+          <a:off x="7338060" y="0"/>
+          <a:ext cx="3916680" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5135,15 +6247,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent1">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -5163,22 +6275,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16">
+        <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFE4D74-46A3-A937-9E5A-F032CAB66A3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CE57E5-9505-7148-C51F-9633FA1077FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5186,29 +6298,147 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6598920" y="830580"/>
-          <a:ext cx="2476500" cy="502920"/>
+          <a:off x="4404360" y="15240"/>
+          <a:ext cx="2918460" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DCF86D-F146-E63A-B398-D3139168BCA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="4191000"/>
+          <a:ext cx="7345680" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F896A5BF-680B-0140-0E3F-01FB52B0965D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13075920" y="30480"/>
+          <a:ext cx="3208020" cy="5394960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5225,10 +6455,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6C1F38-5997-F38E-15B2-0C40C2CBA2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gender">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB01A5BA-BB08-6191-F9A8-AA37465FC006}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8968740" y="358141"/>
+              <a:ext cx="1828800" cy="1463040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="45919.557865740739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{7BF65AEF-F289-4A85-9C56-8D7A190D9634}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table2"/>
+    <worksheetSource name="StudentsTbl"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Student_ID" numFmtId="0">
@@ -6775,8 +8124,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB2BC98C-8C4D-465E-A3E9-B376CFFA7417}" name="PivotTable8" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB2BC98C-8C4D-465E-A3E9-B376CFFA7417}" name="PivotTable8" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6907,11 +8256,11 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6920,14 +8269,14 @@
         <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item h="1" x="32"/>
-        <item h="1" x="38"/>
+        <item x="38"/>
         <item h="1" x="29"/>
         <item h="1" x="48"/>
         <item h="1" x="13"/>
         <item h="1" x="14"/>
         <item h="1" x="27"/>
         <item h="1" x="20"/>
-        <item x="33"/>
+        <item h="1" x="33"/>
         <item h="1" x="16"/>
         <item h="1" x="25"/>
         <item h="1" x="34"/>
@@ -6979,7 +8328,7 @@
     <pivotField dataField="1" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6998,9 +8347,9 @@
     <field x="4"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="6">
     <i>
-      <x v="41"/>
+      <x v="86"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -7010,21 +8359,6 @@
     </i>
     <i r="3">
       <x/>
-    </i>
-    <i r="4">
-      <x/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
-      <x v="3"/>
     </i>
     <i r="4">
       <x/>
@@ -7052,7 +8386,7 @@
     <dataField name="Average of Marks" fld="5" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Attendance (%)" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7134,33 +8468,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7175,11 +8482,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC192DCB-4D43-4389-A03C-1EE43EFA76CD}" name="PivotTable6" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A9:D20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B133CE6-BD3C-4B97-98BA-56C7E55CC6B4}" name="PivotTable40" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A12:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="102">
         <item x="0"/>
         <item x="9"/>
@@ -7285,25 +8592,15 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="1"/>
@@ -7315,19 +8612,126 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Attendance (%)" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602C487D-2683-4211-8464-2517B4780F2B}" name="PivotTable38" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="56">
         <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item h="1" x="32"/>
-        <item h="1" x="38"/>
+        <item x="38"/>
         <item h="1" x="29"/>
         <item h="1" x="48"/>
         <item h="1" x="13"/>
         <item h="1" x="14"/>
         <item h="1" x="27"/>
         <item h="1" x="20"/>
-        <item x="33"/>
+        <item h="1" x="33"/>
         <item h="1" x="16"/>
         <item h="1" x="25"/>
         <item h="1" x="34"/>
@@ -7376,83 +8780,27 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="5">
-    <field x="1"/>
-    <field x="2"/>
+  <rowFields count="1">
     <field x="3"/>
-    <field x="4"/>
-    <field x="8"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="2">
     <i>
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="4">
-      <x/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
       <x v="3"/>
-    </i>
-    <i r="4">
-      <x/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Student_ID" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Average of Marks" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Attendance (%)" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Average of Marks" fld="5" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7462,25 +8810,208 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3448880-0246-4266-BA8F-8B3537492036}" name="PivotTable39" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="102">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="99"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="4"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="7"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="8"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Attendance (%)" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7489,74 +9020,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
+    <chartFormat chart="2" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -7600,16 +9068,15 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Subject" xr10:uid="{84583BBA-A067-425A-B886-868175115A80}" sourceName="Subject">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable8"/>
-    <pivotTable tabId="9" name="PivotTable6"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1467639256">
       <items count="6">
-        <i x="1"/>
-        <i x="4"/>
-        <i x="3"/>
         <i x="0" s="1"/>
+        <i x="1" nd="1"/>
         <i x="2" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="3" nd="1"/>
         <i x="5" nd="1"/>
       </items>
     </tabular>
@@ -7621,17 +9088,16 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Grade" xr10:uid="{7748D5EF-F93D-42AF-9B29-1A83EA91C516}" sourceName="Grade">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable8"/>
-    <pivotTable tabId="9" name="PivotTable6"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1467639256">
       <items count="6">
         <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="0" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
+        <i x="2" nd="1"/>
+        <i x="0" nd="1"/>
+        <i x="3" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="5" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7642,27 +9108,21 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Marks" xr10:uid="{49FBEAFF-8E6A-45FE-BAE4-FCAE6A9F0455}" sourceName="Marks">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable8"/>
-    <pivotTable tabId="9" name="PivotTable6"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1467639256">
       <items count="55">
-        <i x="38"/>
-        <i x="48"/>
-        <i x="13"/>
+        <i x="38" s="1"/>
         <i x="14"/>
-        <i x="33" s="1"/>
-        <i x="1"/>
-        <i x="37"/>
-        <i x="53"/>
+        <i x="33"/>
         <i x="19"/>
-        <i x="31"/>
         <i x="0"/>
-        <i x="45"/>
         <i x="8" nd="1"/>
         <i x="7" nd="1"/>
         <i x="32" nd="1"/>
         <i x="29" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="13" nd="1"/>
         <i x="27" nd="1"/>
         <i x="20" nd="1"/>
         <i x="16" nd="1"/>
@@ -7673,13 +9133,16 @@
         <i x="40" nd="1"/>
         <i x="41" nd="1"/>
         <i x="30" nd="1"/>
+        <i x="1" nd="1"/>
         <i x="23" nd="1"/>
         <i x="35" nd="1"/>
+        <i x="37" nd="1"/>
         <i x="4" nd="1"/>
         <i x="43" nd="1"/>
         <i x="17" nd="1"/>
         <i x="22" nd="1"/>
         <i x="49" nd="1"/>
+        <i x="53" nd="1"/>
         <i x="12" nd="1"/>
         <i x="18" nd="1"/>
         <i x="24" nd="1"/>
@@ -7694,12 +9157,14 @@
         <i x="42" nd="1"/>
         <i x="44" nd="1"/>
         <i x="9" nd="1"/>
+        <i x="31" nd="1"/>
         <i x="47" nd="1"/>
         <i x="6" nd="1"/>
         <i x="2" nd="1"/>
         <i x="10" nd="1"/>
         <i x="50" nd="1"/>
         <i x="52" nd="1"/>
+        <i x="45" nd="1"/>
         <i x="15" nd="1"/>
         <i x="54" nd="1"/>
       </items>
@@ -7712,7 +9177,22 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Attendance" xr10:uid="{6515026F-8B6A-4AF2-B243-851B0300288C}" sourceName="Attendance (%)">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable8"/>
-    <pivotTable tabId="9" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1467639256">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Pass" xr10:uid="{20EC74CD-A594-49D5-BFE6-1A182DC1735B}" sourceName="Pass">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable8"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1467639256">
@@ -7725,17 +9205,107 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Pass" xr10:uid="{20EC74CD-A594-49D5-BFE6-1A182DC1735B}" sourceName="Pass">
+<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{DAE07DA2-1AF2-4506-8EB1-69EA8BB90D5C}" sourceName="Gender">
   <pivotTables>
-    <pivotTable tabId="8" name="PivotTable8"/>
-    <pivotTable tabId="9" name="PivotTable6"/>
+    <pivotTable tabId="12" name="PivotTable39"/>
+    <pivotTable tabId="11" name="PivotTable40"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1467639256">
-      <items count="2">
+      <items count="3">
         <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
+        <i x="1"/>
+        <i x="2" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache7.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Subject1" xr10:uid="{9505C0D1-848C-4287-960C-9E1751AEA1C3}" sourceName="Subject">
+  <pivotTables>
+    <pivotTable tabId="11" name="PivotTable38"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1467639256">
+      <items count="6">
+        <i x="1"/>
+        <i x="3" s="1"/>
+        <i x="0"/>
+        <i x="2" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="5" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache8.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Marks1" xr10:uid="{DF1FA4CD-7B3E-476F-AA7F-6ED34F7CAEA7}" sourceName="Marks">
+  <pivotTables>
+    <pivotTable tabId="11" name="PivotTable38"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1467639256">
+      <items count="55">
+        <i x="32"/>
+        <i x="38" s="1"/>
+        <i x="13"/>
+        <i x="20"/>
+        <i x="33"/>
+        <i x="41"/>
+        <i x="30"/>
+        <i x="35"/>
+        <i x="17"/>
+        <i x="22"/>
+        <i x="49"/>
+        <i x="3"/>
+        <i x="11"/>
+        <i x="9"/>
+        <i x="19"/>
+        <i x="2"/>
+        <i x="50"/>
+        <i x="15"/>
+        <i x="8" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="1" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="37" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="53" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="46" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="42" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="47" nd="1"/>
+        <i x="6" nd="1"/>
+        <i x="0" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="54" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7754,11 +9324,15 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Subject 1" xr10:uid="{675CA3B6-B201-4E15-809A-4E296B9C59EB}" cache="Slicer_Subject" caption="Subject" rowHeight="234950"/>
-  <slicer name="Grade 1" xr10:uid="{C88473B8-263D-4942-9EA2-75C78AB5E108}" cache="Slicer_Grade" caption="Grade" rowHeight="234950"/>
-  <slicer name="Marks 1" xr10:uid="{E316F5CC-1675-4957-A7D9-F948577D8F6A}" cache="Slicer_Marks" caption="Marks" rowHeight="234950"/>
-  <slicer name="Attendance (%) 1" xr10:uid="{CC62AD8F-485B-46FA-80C4-7F7BE49299A8}" cache="Slicer_Attendance" caption="Attendance (%)" rowHeight="234950"/>
-  <slicer name="Pass 1" xr10:uid="{3712BC96-139F-41C8-A60E-C1D231DEF543}" cache="Slicer_Pass" caption="Pass" rowHeight="234950"/>
+  <slicer name="Gender 1" xr10:uid="{4ACE898E-7F11-4630-94C7-310C4953CEEC}" cache="Slicer_Gender" caption="Gender" rowHeight="234950"/>
+  <slicer name="Subject 1" xr10:uid="{87B0FB7E-72C7-45B7-8111-828946F4179B}" cache="Slicer_Subject1" caption="Subject" rowHeight="234950"/>
+  <slicer name="Marks 1" xr10:uid="{99D19169-4644-4B5C-B4C1-F11D53E11D1F}" cache="Slicer_Marks1" caption="Marks" startItem="14" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Gender" xr10:uid="{1C087A8F-47A7-4A2F-9487-7C9E7DFF17B9}" cache="Slicer_Gender" caption="Gender" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -7780,7 +9354,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{271B3474-D088-4CC0-8444-BC47615CE5DD}" name="Table2" displayName="Table2" ref="A1:I121" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{271B3474-D088-4CC0-8444-BC47615CE5DD}" name="StudentsTbl" displayName="StudentsTbl" ref="A1:I121" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:I121" xr:uid="{271B3474-D088-4CC0-8444-BC47615CE5DD}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F9E35395-96AC-4133-85F9-9ACC2452B65C}" name="Student_ID"/>
@@ -7792,7 +9366,7 @@
     <tableColumn id="7" xr3:uid="{DFE8CCD3-B44D-4904-9C7A-ED84EB6F8A6B}" name="Column1"/>
     <tableColumn id="8" xr3:uid="{2E2056A4-028D-4DCC-9EEA-99E2FEAE3023}" name="Attendance (%)"/>
     <tableColumn id="9" xr3:uid="{884443E3-5460-4088-91F1-6AB3A61FACAC}" name="Pass" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8169,10 +9743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA4C890-120F-4A91-B83C-96F868FF2988}">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:Z39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8199,15 +9773,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="12">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43</v>
-      </c>
-      <c r="D4" s="12">
+        <v>93</v>
+      </c>
+      <c r="B4" s="11">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11">
         <v>55</v>
       </c>
     </row>
@@ -8215,13 +9789,13 @@
       <c r="A5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="12">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12">
-        <v>43</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="B5" s="11">
+        <v>87</v>
+      </c>
+      <c r="C5" s="11">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11">
         <v>55</v>
       </c>
     </row>
@@ -8229,13 +9803,13 @@
       <c r="A6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="12">
-        <v>46</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" s="11">
+        <v>87</v>
+      </c>
+      <c r="C6" s="11">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11">
         <v>55</v>
       </c>
     </row>
@@ -8243,13 +9817,13 @@
       <c r="A7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="12">
-        <v>46</v>
-      </c>
-      <c r="C7" s="12">
-        <v>43</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="B7" s="11">
+        <v>87</v>
+      </c>
+      <c r="C7" s="11">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11">
         <v>55</v>
       </c>
     </row>
@@ -8257,97 +9831,27 @@
       <c r="A8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="12">
-        <v>46</v>
-      </c>
-      <c r="C8" s="12">
-        <v>43</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="B8" s="11">
+        <v>87</v>
+      </c>
+      <c r="C8" s="11">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="12">
-        <v>91</v>
-      </c>
-      <c r="C9" s="12">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="12">
-        <v>91</v>
-      </c>
-      <c r="C10" s="12">
-        <v>43</v>
-      </c>
-      <c r="D10" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="12">
-        <v>91</v>
-      </c>
-      <c r="C11" s="12">
-        <v>43</v>
-      </c>
-      <c r="D11" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="12">
-        <v>91</v>
-      </c>
-      <c r="C12" s="12">
-        <v>43</v>
-      </c>
-      <c r="D12" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="12">
-        <v>91</v>
-      </c>
-      <c r="C13" s="12">
-        <v>43</v>
-      </c>
-      <c r="D13" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="12">
-        <v>137</v>
-      </c>
-      <c r="C14" s="12">
-        <v>43</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B9" s="11">
+        <v>87</v>
+      </c>
+      <c r="C9" s="11">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11">
         <v>55</v>
       </c>
     </row>
@@ -8365,25 +9869,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC50D283-B573-496A-825C-38742811DD11}">
-  <dimension ref="A2:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09CC832-12F7-4AE4-876F-DEABD9E32B33}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="S18" sqref="R12:S18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="12" t="s">
         <v>135</v>
       </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -8396,11 +9913,14 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -8414,11 +9934,14 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="11">
+        <v>34</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -8432,236 +9955,251 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="12">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12">
-        <v>43</v>
-      </c>
-      <c r="D10" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="12">
-        <v>46</v>
-      </c>
-      <c r="C11" s="12">
-        <v>43</v>
-      </c>
-      <c r="D11" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="12">
-        <v>46</v>
-      </c>
-      <c r="C12" s="12">
-        <v>43</v>
-      </c>
-      <c r="D12" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="12">
-        <v>46</v>
-      </c>
-      <c r="C13" s="12">
-        <v>43</v>
-      </c>
-      <c r="D13" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="12">
-        <v>46</v>
-      </c>
-      <c r="C14" s="12">
-        <v>43</v>
-      </c>
-      <c r="D14" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="12">
-        <v>91</v>
-      </c>
-      <c r="C15" s="12">
-        <v>43</v>
-      </c>
-      <c r="D15" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="B15" s="11">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="12">
-        <v>91</v>
-      </c>
-      <c r="C16" s="12">
-        <v>43</v>
-      </c>
-      <c r="D16" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="12">
-        <v>91</v>
-      </c>
-      <c r="C17" s="12">
-        <v>43</v>
-      </c>
-      <c r="D17" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="11">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="12">
-        <v>91</v>
-      </c>
-      <c r="C18" s="12">
-        <v>43</v>
-      </c>
-      <c r="D18" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="12">
-        <v>91</v>
-      </c>
-      <c r="C19" s="12">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="11">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="11">
+        <v>660</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="12">
-        <v>137</v>
-      </c>
-      <c r="C20" s="12">
-        <v>43</v>
-      </c>
-      <c r="D20" s="12">
-        <v>55</v>
+      <c r="B23" s="11">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:R7"/>
+    <mergeCell ref="C1:O4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B35178-6A7D-45EA-97C0-88DB3D3D09AF}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="11">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="11">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="11">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="11">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
   <extLst>
@@ -8674,12 +10212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8750,7 +10288,7 @@
         <v>55</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8780,7 +10318,7 @@
         <v>55</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8810,7 +10348,7 @@
         <v>55</v>
       </c>
       <c r="I4" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8840,7 +10378,7 @@
         <v>55</v>
       </c>
       <c r="I5" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8870,7 +10408,7 @@
         <v>55</v>
       </c>
       <c r="I6" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8900,7 +10438,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8930,7 +10468,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8960,7 +10498,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -8990,7 +10528,7 @@
         <v>55</v>
       </c>
       <c r="I10" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9020,7 +10558,7 @@
         <v>55</v>
       </c>
       <c r="I11" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9050,7 +10588,7 @@
         <v>55</v>
       </c>
       <c r="I12" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9080,7 +10618,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9110,7 +10648,7 @@
         <v>55</v>
       </c>
       <c r="I14" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9140,7 +10678,7 @@
         <v>55</v>
       </c>
       <c r="I15" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9170,7 +10708,7 @@
         <v>55</v>
       </c>
       <c r="I16" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9200,7 +10738,7 @@
         <v>55</v>
       </c>
       <c r="I17" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9230,7 +10768,7 @@
         <v>55</v>
       </c>
       <c r="I18" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9260,7 +10798,7 @@
         <v>55</v>
       </c>
       <c r="I19" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9290,7 +10828,7 @@
         <v>55</v>
       </c>
       <c r="I20" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9320,7 +10858,7 @@
         <v>55</v>
       </c>
       <c r="I21" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9350,7 +10888,7 @@
         <v>55</v>
       </c>
       <c r="I22" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9380,7 +10918,7 @@
         <v>55</v>
       </c>
       <c r="I23" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9410,7 +10948,7 @@
         <v>55</v>
       </c>
       <c r="I24" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9440,7 +10978,7 @@
         <v>55</v>
       </c>
       <c r="I25" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9470,7 +11008,7 @@
         <v>55</v>
       </c>
       <c r="I26" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9500,7 +11038,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9530,7 +11068,7 @@
         <v>55</v>
       </c>
       <c r="I28" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9560,7 +11098,7 @@
         <v>55</v>
       </c>
       <c r="I29" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9590,7 +11128,7 @@
         <v>55</v>
       </c>
       <c r="I30" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9620,7 +11158,7 @@
         <v>55</v>
       </c>
       <c r="I31" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9650,7 +11188,7 @@
         <v>55</v>
       </c>
       <c r="I32" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9680,7 +11218,7 @@
         <v>55</v>
       </c>
       <c r="I33" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9710,7 +11248,7 @@
         <v>55</v>
       </c>
       <c r="I34" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9740,7 +11278,7 @@
         <v>55</v>
       </c>
       <c r="I35" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9770,7 +11308,7 @@
         <v>55</v>
       </c>
       <c r="I36" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9800,7 +11338,7 @@
         <v>55</v>
       </c>
       <c r="I37" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9830,7 +11368,7 @@
         <v>55</v>
       </c>
       <c r="I38" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9860,7 +11398,7 @@
         <v>55</v>
       </c>
       <c r="I39" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9890,7 +11428,7 @@
         <v>55</v>
       </c>
       <c r="I40" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9920,7 +11458,7 @@
         <v>55</v>
       </c>
       <c r="I41" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9950,7 +11488,7 @@
         <v>55</v>
       </c>
       <c r="I42" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -9980,7 +11518,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10010,7 +11548,7 @@
         <v>55</v>
       </c>
       <c r="I44" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10040,7 +11578,7 @@
         <v>55</v>
       </c>
       <c r="I45" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10070,7 +11608,7 @@
         <v>55</v>
       </c>
       <c r="I46" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10100,7 +11638,7 @@
         <v>55</v>
       </c>
       <c r="I47" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10130,7 +11668,7 @@
         <v>55</v>
       </c>
       <c r="I48" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10160,7 +11698,7 @@
         <v>55</v>
       </c>
       <c r="I49" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10190,7 +11728,7 @@
         <v>55</v>
       </c>
       <c r="I50" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10220,7 +11758,7 @@
         <v>55</v>
       </c>
       <c r="I51" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10250,7 +11788,7 @@
         <v>55</v>
       </c>
       <c r="I52" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10280,7 +11818,7 @@
         <v>55</v>
       </c>
       <c r="I53" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10310,7 +11848,7 @@
         <v>55</v>
       </c>
       <c r="I54" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10340,7 +11878,7 @@
         <v>55</v>
       </c>
       <c r="I55" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10370,7 +11908,7 @@
         <v>55</v>
       </c>
       <c r="I56" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10400,7 +11938,7 @@
         <v>55</v>
       </c>
       <c r="I57" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10430,7 +11968,7 @@
         <v>55</v>
       </c>
       <c r="I58" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10460,7 +11998,7 @@
         <v>55</v>
       </c>
       <c r="I59" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10490,7 +12028,7 @@
         <v>55</v>
       </c>
       <c r="I60" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10520,7 +12058,7 @@
         <v>55</v>
       </c>
       <c r="I61" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10550,7 +12088,7 @@
         <v>55</v>
       </c>
       <c r="I62" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10580,7 +12118,7 @@
         <v>55</v>
       </c>
       <c r="I63" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10610,7 +12148,7 @@
         <v>55</v>
       </c>
       <c r="I64" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10640,7 +12178,7 @@
         <v>55</v>
       </c>
       <c r="I65" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10670,7 +12208,7 @@
         <v>55</v>
       </c>
       <c r="I66" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10700,7 +12238,7 @@
         <v>55</v>
       </c>
       <c r="I67" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10730,7 +12268,7 @@
         <v>55</v>
       </c>
       <c r="I68" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10760,7 +12298,7 @@
         <v>55</v>
       </c>
       <c r="I69" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10790,7 +12328,7 @@
         <v>55</v>
       </c>
       <c r="I70" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10820,7 +12358,7 @@
         <v>55</v>
       </c>
       <c r="I71" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10850,7 +12388,7 @@
         <v>55</v>
       </c>
       <c r="I72" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10880,7 +12418,7 @@
         <v>55</v>
       </c>
       <c r="I73" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10910,7 +12448,7 @@
         <v>55</v>
       </c>
       <c r="I74" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10940,7 +12478,7 @@
         <v>55</v>
       </c>
       <c r="I75" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -10970,7 +12508,7 @@
         <v>55</v>
       </c>
       <c r="I76" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11000,7 +12538,7 @@
         <v>55</v>
       </c>
       <c r="I77" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11030,7 +12568,7 @@
         <v>55</v>
       </c>
       <c r="I78" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11060,7 +12598,7 @@
         <v>55</v>
       </c>
       <c r="I79" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11090,7 +12628,7 @@
         <v>55</v>
       </c>
       <c r="I80" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11120,7 +12658,7 @@
         <v>55</v>
       </c>
       <c r="I81" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11150,7 +12688,7 @@
         <v>55</v>
       </c>
       <c r="I82" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11180,7 +12718,7 @@
         <v>55</v>
       </c>
       <c r="I83" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11210,7 +12748,7 @@
         <v>55</v>
       </c>
       <c r="I84" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11240,7 +12778,7 @@
         <v>55</v>
       </c>
       <c r="I85" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11270,7 +12808,7 @@
         <v>55</v>
       </c>
       <c r="I86" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11300,7 +12838,7 @@
         <v>55</v>
       </c>
       <c r="I87" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11330,7 +12868,7 @@
         <v>55</v>
       </c>
       <c r="I88" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11360,7 +12898,7 @@
         <v>55</v>
       </c>
       <c r="I89" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11390,7 +12928,7 @@
         <v>55</v>
       </c>
       <c r="I90" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11420,7 +12958,7 @@
         <v>55</v>
       </c>
       <c r="I91" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11450,7 +12988,7 @@
         <v>55</v>
       </c>
       <c r="I92" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11480,7 +13018,7 @@
         <v>55</v>
       </c>
       <c r="I93" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11510,7 +13048,7 @@
         <v>55</v>
       </c>
       <c r="I94" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11540,7 +13078,7 @@
         <v>55</v>
       </c>
       <c r="I95" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11570,7 +13108,7 @@
         <v>55</v>
       </c>
       <c r="I96" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11600,7 +13138,7 @@
         <v>55</v>
       </c>
       <c r="I97" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11630,7 +13168,7 @@
         <v>55</v>
       </c>
       <c r="I98" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11660,7 +13198,7 @@
         <v>55</v>
       </c>
       <c r="I99" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11690,7 +13228,7 @@
         <v>55</v>
       </c>
       <c r="I100" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11720,7 +13258,7 @@
         <v>55</v>
       </c>
       <c r="I101" t="str">
-        <f>IF(Table2[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
+        <f>IF(StudentsTbl[[#Headers],[Marks]]&gt;=35,"Pass","fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -11730,4 +13268,29 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59E1B4-D7F5-482B-86AD-CC8FA3388C5B}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>COUNTA(StudentsTbl[Name])</f>
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>IFERROR(ROUND(AVERAGE(StudentsTbl[Marks]),1),"—")</f>
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>